--- a/test-data/webanalytics-commonobj.xlsx
+++ b/test-data/webanalytics-commonobj.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Development\WCMS\qa-testing\test-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{A65FADA8-3362-4B09-A753-36FC70BC6CD0}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{73482196-F29F-41F5-BA9A-A18108D68A10}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12750" windowHeight="2640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12750" windowHeight="2640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="HomeLandingTopicCards" sheetId="10" r:id="rId1"/>
-    <sheet name="MegaMenuInfo" sheetId="11" r:id="rId2"/>
+    <sheet name="HomePageCards" sheetId="13" r:id="rId1"/>
+    <sheet name="LandingPageCards" sheetId="14" r:id="rId2"/>
+    <sheet name="MegaMenuInfo" sheetId="11" r:id="rId3"/>
+    <sheet name="TimingScroll" sheetId="12" r:id="rId4"/>
+    <sheet name="TopicPageCards" sheetId="15" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -26,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="50">
   <si>
     <t>Path</t>
   </si>
@@ -34,48 +37,27 @@
     <t>ContentType</t>
   </si>
   <si>
-    <t>CardPos</t>
-  </si>
-  <si>
     <t>/</t>
   </si>
   <si>
-    <t>Home</t>
-  </si>
-  <si>
-    <t>CardType</t>
-  </si>
-  <si>
     <t>LinkSelector</t>
   </si>
   <si>
     <t>TitleSelector</t>
   </si>
   <si>
-    <t>Feature</t>
-  </si>
-  <si>
     <t>.feature-primary .feature-card h3</t>
   </si>
   <si>
-    <t>Guide</t>
-  </si>
-  <si>
     <t>.guide-card .card h2</t>
   </si>
   <si>
     <t>.multimedia div[class*=feature-card] h3</t>
   </si>
   <si>
-    <t>Multimedia</t>
-  </si>
-  <si>
     <t>.guide-card .card h2  + ul li a</t>
   </si>
   <si>
-    <t>Thumbnail</t>
-  </si>
-  <si>
     <t>.card-thumbnail h3 a</t>
   </si>
   <si>
@@ -85,30 +67,18 @@
     <t>/about-cancer</t>
   </si>
   <si>
-    <t>SecondaryFeature</t>
-  </si>
-  <si>
     <t>.feature-secondary .feature-card h3</t>
   </si>
   <si>
     <t>/about-nci/organization/crchd</t>
   </si>
   <si>
-    <t>SlottedTopicCard</t>
-  </si>
-  <si>
-    <t>Topic</t>
-  </si>
-  <si>
     <t>.topic-feature .feature-card a h3</t>
   </si>
   <si>
     <t>/about-cancer/treatment</t>
   </si>
   <si>
-    <t>InlineCard</t>
-  </si>
-  <si>
     <t>#cgvBody .feature-card a h3</t>
   </si>
   <si>
@@ -158,6 +128,57 @@
   </si>
   <si>
     <t>/PublishedContent/ErrorMessages/PageNotFound.html</t>
+  </si>
+  <si>
+    <t>/news-events</t>
+  </si>
+  <si>
+    <t>/espanol/tipos/vesicula-biliar</t>
+  </si>
+  <si>
+    <t>CTHP</t>
+  </si>
+  <si>
+    <t>/about-cancer/treatment/types/immunotherapy</t>
+  </si>
+  <si>
+    <t>Article</t>
+  </si>
+  <si>
+    <t>CardTypePosition</t>
+  </si>
+  <si>
+    <t>Feature:1</t>
+  </si>
+  <si>
+    <t>Guide:1</t>
+  </si>
+  <si>
+    <t>Multimedia:2</t>
+  </si>
+  <si>
+    <t>Thumbnail:1</t>
+  </si>
+  <si>
+    <t>SecondaryFeature:3</t>
+  </si>
+  <si>
+    <t>InlineCard:1</t>
+  </si>
+  <si>
+    <t>SlottedTopicCard:1</t>
+  </si>
+  <si>
+    <t>Multimedia:1</t>
+  </si>
+  <si>
+    <t>/research</t>
+  </si>
+  <si>
+    <t>Feature:2</t>
+  </si>
+  <si>
+    <t>Thumbnail:2</t>
   </si>
 </sst>
 </file>
@@ -207,12 +228,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -526,293 +546,231 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F2B56E1-BA35-4071-8CAC-1CCCC51E0A7D}">
-  <dimension ref="A1:F13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72B1045D-7223-4887-961C-26C884DD6A7F}">
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="37" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="37" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
+      <c r="B1" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="s">
+      <c r="C7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
+      <c r="D7" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DF5B4D7-78BB-4A10-8C30-853138B87B32}">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0546EB62-9EAA-40B6-9895-47102C6D888C}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -829,67 +787,194 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="E2" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3684BF6F-55B7-48F3-883C-A89530045D73}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="44.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01929DA8-F50A-4B25-9225-A16CFAB01B23}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="30" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" t="s">
-        <v>41</v>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="D3" t="s">
         <v>42</v>
       </c>
-      <c r="E3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4" t="s">
-        <v>37</v>
+        <v>13</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
